--- a/relatorio_geral.xlsx
+++ b/relatorio_geral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e524acc8c5755f6/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CED4D2-50CE-4630-BAA8-C3CBF2409DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6220B9-B3E8-4208-9492-EB68B10CB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F32BB59-66D3-4E74-BCB4-AC8599E3AAF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2F32BB59-66D3-4E74-BCB4-AC8599E3AAF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="226">
   <si>
     <t>ID do Requisito</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Microcontrolador e Processamento</t>
   </si>
   <si>
-    <t>Arduino Nano / ESP32</t>
-  </si>
-  <si>
     <t>Nano: Simplicidade e baixo consumo; ESP32: Maior capacidade de processamento e conectividade (Wi-Fi/Bluetooth) para tarefas paralelas.</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>BME280 é preferencial se a precisão e a integração forem críticas.</t>
   </si>
   <si>
-    <t>BMP180 ou integrado no BME280</t>
-  </si>
-  <si>
     <t>Medição da pressão atmosférica para cálculo de altitude e análise de condições ambientais.</t>
   </si>
   <si>
@@ -251,15 +245,6 @@
     <t>Seleção baseada na faixa de detecção e tempo de resposta.</t>
   </si>
   <si>
-    <t>Fotodiodo com filtro</t>
-  </si>
-  <si>
-    <t>Mede a intensidade da radiação solar para análise ambiental e validação dos dados no Digital Twin.</t>
-  </si>
-  <si>
-    <t>Adequado para simulações sob diferentes condições de iluminação.</t>
-  </si>
-  <si>
     <t>Navegação e Rastreamento</t>
   </si>
   <si>
@@ -317,9 +302,6 @@
     <t>Priorizar módulos de baixo consumo e fácil integração.</t>
   </si>
   <si>
-    <t>Bateria LiPo</t>
-  </si>
-  <si>
     <t>Fonte de energia com alta densidade e leveza, acompanhada de um circuito de gerenciamento que previne sobrecarga e descarga profunda.</t>
   </si>
   <si>
@@ -338,15 +320,6 @@
     <t>Sistema de Recuperação</t>
   </si>
   <si>
-    <t>Atuador para Paraquedas (Servomotor)</t>
-  </si>
-  <si>
-    <t>Aciona o paraquedas automaticamente com base em condições pré-definidas (altitude ou tempo de voo), assegurando uma descida controlada.</t>
-  </si>
-  <si>
-    <t>Deve ter resposta rápida e estar sincronizado com os sensores.</t>
-  </si>
-  <si>
     <t>Paraquedas Dimensionado</t>
   </si>
   <si>
@@ -735,6 +708,15 @@
   </si>
   <si>
     <t>Criação de sistemas autônomos de controle e estratégias de recuperação</t>
+  </si>
+  <si>
+    <t>Bateria 9v</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>ESP32</t>
   </si>
 </sst>
 </file>
@@ -778,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,7 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -807,28 +788,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -907,9 +866,50 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -933,25 +933,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1003,43 +984,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58E79062-F031-4516-9FA3-2C8ACCCEE174}" name="Tabela2" displayName="Tabela2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:D17" xr:uid="{58E79062-F031-4516-9FA3-2C8ACCCEE174}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58E79062-F031-4516-9FA3-2C8ACCCEE174}" name="Tabela2" displayName="Tabela2" ref="A1:D15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:D15" xr:uid="{58E79062-F031-4516-9FA3-2C8ACCCEE174}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F8A84941-3A8F-43E3-BEF7-02B207BEC87F}" name="Categoria" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{F8A84941-3A8F-43E3-BEF7-02B207BEC87F}" name="Categoria" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{ADAD5FA4-BED3-4F27-BF58-4D6DEE702B16}" name="Componente" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{8C113AE4-9F63-4B2D-9D7A-C15207CE7CD5}" name="Descrição/Justificativa" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{65C058A5-3BA4-4D2E-A5B9-DDB889893F01}" name="Filtro/Comentários" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{8C113AE4-9F63-4B2D-9D7A-C15207CE7CD5}" name="Descrição/Justificativa" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{65C058A5-3BA4-4D2E-A5B9-DDB889893F01}" name="Filtro/Comentários" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50B2E289-A17A-43AD-AA6D-8521580EB430}" name="Tabela3" displayName="Tabela3" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50B2E289-A17A-43AD-AA6D-8521580EB430}" name="Tabela3" displayName="Tabela3" ref="A1:G12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G12" xr:uid="{50B2E289-A17A-43AD-AA6D-8521580EB430}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{86A9C534-6B68-4571-9E75-80C08FE28062}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4FEE9DE1-A242-4856-B470-B3C2115EB935}" name="Componente/Teste" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{08A7D1E3-6244-4241-980D-E16FA534621D}" name="Objetivo" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{480CAE92-92D7-4DC5-9209-0E98A26DC3C6}" name="Procedimento" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{EB18A4FB-D02F-49B7-B65E-EB216109E764}" name="Equipamento Utilizado" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{16A4FEDF-E32A-4E3D-87BA-17B971793085}" name="Resultado Esperado" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{4FD9A495-BA2A-4B38-9B9C-343F7D5A2DB8}" name="Observações" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{86A9C534-6B68-4571-9E75-80C08FE28062}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4FEE9DE1-A242-4856-B470-B3C2115EB935}" name="Componente/Teste" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{08A7D1E3-6244-4241-980D-E16FA534621D}" name="Objetivo" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{480CAE92-92D7-4DC5-9209-0E98A26DC3C6}" name="Procedimento" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{EB18A4FB-D02F-49B7-B65E-EB216109E764}" name="Equipamento Utilizado" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{16A4FEDF-E32A-4E3D-87BA-17B971793085}" name="Resultado Esperado" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4FD9A495-BA2A-4B38-9B9C-343F7D5A2DB8}" name="Observações" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4CA85FA-2C02-4B2D-935A-788815468F3B}" name="Tabela4" displayName="Tabela4" ref="A1:E10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4CA85FA-2C02-4B2D-935A-788815468F3B}" name="Tabela4" displayName="Tabela4" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E10" xr:uid="{D4CA85FA-2C02-4B2D-935A-788815468F3B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{579A1B21-0B6E-456A-932B-F292271A4399}" name="Área/Aspecto" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{834B79F3-6840-43B8-A6D4-3D8AF9FEF40F}" name="Técnica/Abordagem" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{BA498E93-645A-4438-AAAA-AE16BBDA5846}" name="Objetivo" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{88211EC3-BA79-4F6E-9E48-AAC105EBC351}" name="Ferramenta/Exemplo" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{691AAC37-3D08-4D52-AD79-D9D3DF0ED0A0}" name="Futuros Trabalhos/Aplicações" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{579A1B21-0B6E-456A-932B-F292271A4399}" name="Área/Aspecto" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{834B79F3-6840-43B8-A6D4-3D8AF9FEF40F}" name="Técnica/Abordagem" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BA498E93-645A-4438-AAAA-AE16BBDA5846}" name="Objetivo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{88211EC3-BA79-4F6E-9E48-AAC105EBC351}" name="Ferramenta/Exemplo" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{691AAC37-3D08-4D52-AD79-D9D3DF0ED0A0}" name="Futuros Trabalhos/Aplicações" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1734,18 +1715,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3574A-75ED-465A-A6AD-9365D9A497DB}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="65" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,223 +1748,195 @@
         <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2004,85 +1957,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2090,42 +2043,42 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2136,157 +2089,157 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E502210-4041-425E-90A6-591A21B9FC23}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2314,174 +2267,174 @@
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio_geral.xlsx
+++ b/relatorio_geral.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e524acc8c5755f6/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6220B9-B3E8-4208-9492-EB68B10CB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7CB03-BF6F-4039-8340-D94AECD73AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2F32BB59-66D3-4E74-BCB4-AC8599E3AAF6}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{2F32BB59-66D3-4E74-BCB4-AC8599E3AAF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>Compatível com o sensor de temperatura escolhido.</t>
   </si>
   <si>
-    <t>MQ-135</t>
-  </si>
-  <si>
     <t>Detecta diversos poluentes e avalia a qualidade do ar, contribuindo para análises ambientais.</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>Navegação e Rastreamento</t>
   </si>
   <si>
-    <t>Módulo GPS (ex.: Ublox Neo-6M)</t>
-  </si>
-  <si>
     <t>Permite o rastreamento em tempo real da localização do CanSat, facilitando sua recuperação.</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t>Comunicação e Transmissão de Dados</t>
   </si>
   <si>
-    <t>Módulo de Transmissão (LoRa, XBee ou Wi-Fi)</t>
-  </si>
-  <si>
     <t>Garante a transmissão dos dados do CanSat para a estação base em tempo real.</t>
   </si>
   <si>
@@ -717,6 +708,15 @@
   </si>
   <si>
     <t>ESP32</t>
+  </si>
+  <si>
+    <t>(MQ-135) MICS 6814</t>
+  </si>
+  <si>
+    <t>Módulo de Transmissão (LoRa)</t>
+  </si>
+  <si>
+    <t>Módulo GPS Neo-6M</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2814962A-DE1E-4D35-9790-5B0D9647DFD4}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3574A-75ED-465A-A6AD-9365D9A497DB}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1748,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>57</v>
@@ -1776,7 +1776,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -1790,153 +1790,153 @@
         <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1968,25 +1968,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1994,22 +1994,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2017,22 +2017,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2043,19 +2043,19 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2063,22 +2063,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2089,19 +2089,19 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2109,22 +2109,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2132,22 +2132,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2155,22 +2155,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2178,22 +2178,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2201,22 +2201,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2224,22 +2224,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2269,172 +2269,172 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
